--- a/log_history/Y2_B2425_Physiology_scanner1758454768146_0f800f99fcc71bfa76e6b1ca4c15dde4b21df8ea3be7d5ddb345a674a6d48708.xlsx
+++ b/log_history/Y2_B2425_Physiology_scanner1758454768146_0f800f99fcc71bfa76e6b1ca4c15dde4b21df8ea3be7d5ddb345a674a6d48708.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Physiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
